--- a/front/src/assets/FORMATO_RETIRO_AHORRO.xlsx
+++ b/front/src/assets/FORMATO_RETIRO_AHORRO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femseapto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\femseapto\front\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF245351-75DA-42B9-BCF4-48F8D9771C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B425475-6F0A-4BCB-91F6-4D8688AA0464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="4700" windowWidth="25134" windowHeight="13496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -431,6 +435,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -456,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -804,19 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1092,38 +1107,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,35 +1190,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1188,79 +1241,100 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,26 +1352,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1305,9 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1320,7 +1394,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,11 +1421,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1359,9 +1436,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1380,21 +1454,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{5CA0A5D7-7C19-4A93-B888-DB62DC368FA3}"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4738,227 +4813,227 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="7" width="5.796875" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" customWidth="1"/>
-    <col min="9" max="9" width="4.19921875" customWidth="1"/>
-    <col min="10" max="10" width="7.296875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="58" t="s">
+    <row r="1" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="74"/>
+      <c r="B2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="24" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="25" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="26" t="s">
+    <row r="4" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
+    <row r="5" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="16.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="100"/>
     </row>
-    <row r="7" spans="1:11" ht="6.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
+    <row r="7" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="33" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="33" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="16.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:11" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="30" t="s">
         <v>27</v>
       </c>
@@ -4967,164 +5042,164 @@
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
     </row>
-    <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:11" ht="14.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
     </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:14" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="97" t="s">
+    <row r="18" spans="1:14" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
     </row>
-    <row r="19" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
-      <c r="N19" s="3"/>
+    <row r="19" spans="1:14" ht="47.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="16.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
     </row>
-    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="44" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="15"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="F23" s="44" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="15"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="13"/>
+    <row r="24" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
     <mergeCell ref="B2:J4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="I22:J22"/>
@@ -5151,11 +5226,14 @@
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:K14"/>
-    <mergeCell ref="F9:K9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:K10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/FORMATO_RETIRO_AHORRO.xlsx
+++ b/front/src/assets/FORMATO_RETIRO_AHORRO.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\femseapto\front\src\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992AE933-FD90-419D-815F-16D716E05C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t xml:space="preserve">RETIRO  DE  AHORROS</t>
+    <t>RETIRO  DE  AHORROS</t>
   </si>
   <si>
-    <t xml:space="preserve">CODIGO: FR-GA-01</t>
+    <t>CODIGO: FR-GA-01</t>
   </si>
   <si>
-    <t xml:space="preserve">VERSIÓN: 1</t>
+    <t>VERSIÓN: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">PÁGINA: 1 de 1</t>
+    <t>PÁGINA: 1 de 1</t>
   </si>
   <si>
     <r>
@@ -36,11 +40,11 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">INFORMACIÓN  PERSONAL</t>
+      <t>INFORMACIÓN  PERSONAL</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Nombre Completo:</t>
+    <t>Nombre Completo:</t>
   </si>
   <si>
     <t>Cédula:</t>
@@ -51,7 +55,7 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Fecha de Solicitud</t>
+      <t>Fecha de Solicitud</t>
     </r>
     <r>
       <rPr>
@@ -70,7 +74,7 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Teléfono  celular</t>
+      <t>Teléfono  celular</t>
     </r>
     <r>
       <rPr>
@@ -90,7 +94,7 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Monto a Retirar</t>
+      <t>Monto a Retirar</t>
     </r>
     <r>
       <rPr>
@@ -108,7 +112,7 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">INFORMACIÓN SOBRE EL RETIRO</t>
+      <t>INFORMACIÓN SOBRE EL RETIRO</t>
     </r>
   </si>
   <si>
@@ -118,7 +122,7 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Tipo de ahorro</t>
+      <t>Tipo de ahorro</t>
     </r>
   </si>
   <si>
@@ -138,14 +142,14 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Consignacion Cuenta de Ahorros</t>
+      <t>Consignacion Cuenta de Ahorros</t>
     </r>
   </si>
   <si>
     <t>Banco:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nº Cuenta:</t>
+    <t>Nº Cuenta:</t>
   </si>
   <si>
     <r>
@@ -157,10 +161,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Devolución por Caja</t>
+    <t>Devolución por Caja</t>
   </si>
   <si>
-    <t xml:space="preserve">*Solo aplica para Asociados No bancarizados</t>
+    <t>*Solo aplica para Asociados No bancarizados</t>
   </si>
   <si>
     <r>
@@ -208,7 +212,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Desea continuar con el ahorro:</t>
+    <t>Desea continuar con el ahorro:</t>
   </si>
   <si>
     <r>
@@ -241,7 +245,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
@@ -264,7 +268,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
@@ -278,97 +282,107 @@
         <sz val="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">ESPACIO  EXCLUSIVO PARA FEMSEAPTO</t>
+      <t>ESPACIO  EXCLUSIVO PARA FEMSEAPTO</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Firma de recibido: </t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha de recibido:</t>
+    <t>Fecha de recibido:</t>
   </si>
   <si>
-    <t xml:space="preserve">Firma de Aprobación:</t>
+    <t>Firma de Aprobación:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha de Aprobación:</t>
+    <t>Fecha de Aprobación:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="17.500000"/>
+      <sz val="17.5"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.000000"/>
+      <sz val="8"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.000000"/>
+      <sz val="8"/>
       <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.000000"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -397,11 +411,11 @@
   </fills>
   <borders count="53">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -416,10 +430,10 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -429,7 +443,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -444,20 +458,20 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -472,10 +486,10 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -485,7 +499,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -500,20 +514,20 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -528,10 +542,10 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -541,7 +555,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -556,65 +570,65 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -624,7 +638,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -636,8 +650,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -652,7 +666,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -661,23 +675,23 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -687,7 +701,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -696,11 +710,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -712,22 +726,22 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -737,7 +751,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -746,11 +760,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -765,7 +779,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -780,7 +794,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -795,7 +809,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -804,11 +818,11 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -817,38 +831,38 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -858,7 +872,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -873,7 +887,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -888,65 +902,65 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -956,7 +970,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -968,8 +982,8 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -981,402 +995,405 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="105">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="3" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="3" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="12" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="25" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="26" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="10" fillId="4" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="11" fillId="4" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="35" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="47" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="48" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="12" fillId="3" borderId="49" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="3" borderId="50" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="3" borderId="51" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="52" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="3" borderId="49" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="50" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="50" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="51" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1394,7 +1411,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1405,13 +1422,19 @@
     <xdr:ext cx="614299" cy="468758"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpeg"/>
+        <xdr:cNvPr id="2" name="image1.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1434,9 +1457,15 @@
       <xdr:rowOff>168401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="436245" cy="393699"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4" descr="DD"/>
+        <xdr:cNvPr id="4" name="Shape 4" descr="DD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1451,7 +1480,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -1565,7 +1594,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="57912" y="377951"/>
               </a:moveTo>
@@ -1580,7 +1609,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="377951"/>
               </a:moveTo>
@@ -1595,7 +1624,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387095" y="374903"/>
               </a:moveTo>
@@ -1616,7 +1645,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="48767" y="374903"/>
               </a:moveTo>
@@ -1631,7 +1660,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362711"/>
               </a:moveTo>
@@ -1658,7 +1687,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="30479" y="362711"/>
               </a:moveTo>
@@ -1673,7 +1702,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="344423"/>
               </a:moveTo>
@@ -1703,7 +1732,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="24383" y="353567"/>
               </a:moveTo>
@@ -1718,7 +1747,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="344423"/>
               </a:moveTo>
@@ -1733,7 +1762,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="430529" y="45719"/>
               </a:moveTo>
@@ -1769,7 +1798,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="19812" y="45719"/>
               </a:moveTo>
@@ -1784,7 +1813,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="420623" y="27431"/>
               </a:moveTo>
@@ -1814,7 +1843,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="25907" y="36575"/>
               </a:moveTo>
@@ -1829,7 +1858,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="33527" y="27431"/>
               </a:moveTo>
@@ -1844,7 +1873,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="406400" y="15239"/>
               </a:moveTo>
@@ -1871,7 +1900,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="54863" y="15239"/>
               </a:moveTo>
@@ -1886,7 +1915,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -1951,9 +1980,15 @@
       <xdr:rowOff>171068</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="433070" cy="393699"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Shape 7"/>
+        <xdr:cNvPr id="7" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1968,7 +2003,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -2058,7 +2093,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -2079,7 +2114,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -2094,7 +2129,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -2121,7 +2156,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -2148,7 +2183,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -2163,7 +2198,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -2193,7 +2228,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -2208,7 +2243,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -2235,7 +2270,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -2262,7 +2297,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -2277,7 +2312,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -2342,9 +2377,15 @@
       <xdr:rowOff>171068</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="433070" cy="393699"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 7"/>
+        <xdr:cNvPr id="11" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2359,7 +2400,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -2449,7 +2490,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -2470,7 +2511,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -2485,7 +2526,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -2512,7 +2553,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -2539,7 +2580,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -2554,7 +2595,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -2584,7 +2625,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -2599,7 +2640,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -2626,7 +2667,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -2653,7 +2694,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -2668,7 +2709,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -2733,9 +2774,15 @@
       <xdr:rowOff>301751</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="436245" cy="393699"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 4" descr="DD"/>
+        <xdr:cNvPr id="12" name="Shape 4" descr="DD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2750,7 +2797,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -2864,7 +2911,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="57912" y="377951"/>
               </a:moveTo>
@@ -2879,7 +2926,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="377951"/>
               </a:moveTo>
@@ -2894,7 +2941,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387095" y="374903"/>
               </a:moveTo>
@@ -2915,7 +2962,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="48767" y="374903"/>
               </a:moveTo>
@@ -2930,7 +2977,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362711"/>
               </a:moveTo>
@@ -2957,7 +3004,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="30479" y="362711"/>
               </a:moveTo>
@@ -2972,7 +3019,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="344423"/>
               </a:moveTo>
@@ -3002,7 +3049,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="24383" y="353567"/>
               </a:moveTo>
@@ -3017,7 +3064,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="344423"/>
               </a:moveTo>
@@ -3032,7 +3079,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="430529" y="45719"/>
               </a:moveTo>
@@ -3068,7 +3115,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="19812" y="45719"/>
               </a:moveTo>
@@ -3083,7 +3130,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="420623" y="27431"/>
               </a:moveTo>
@@ -3113,7 +3160,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="25907" y="36575"/>
               </a:moveTo>
@@ -3128,7 +3175,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="33527" y="27431"/>
               </a:moveTo>
@@ -3143,7 +3190,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="406400" y="15239"/>
               </a:moveTo>
@@ -3170,7 +3217,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="54863" y="15239"/>
               </a:moveTo>
@@ -3185,7 +3232,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="436245" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -3250,9 +3297,15 @@
       <xdr:rowOff>304417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="433070" cy="393699"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 7"/>
+        <xdr:cNvPr id="13" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3267,7 +3320,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -3357,7 +3410,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -3378,7 +3431,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -3393,7 +3446,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -3420,7 +3473,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -3447,7 +3500,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -3462,7 +3515,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -3492,7 +3545,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -3507,7 +3560,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -3534,7 +3587,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -3561,7 +3614,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -3576,7 +3629,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -3641,9 +3694,15 @@
       <xdr:rowOff>304417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="433070" cy="393699"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 7"/>
+        <xdr:cNvPr id="14" name="Shape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3658,7 +3717,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -3748,7 +3807,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -3769,7 +3828,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -3784,7 +3843,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -3811,7 +3870,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -3838,7 +3897,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -3853,7 +3912,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -3883,7 +3942,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -3898,7 +3957,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -3925,7 +3984,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -3952,7 +4011,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -3967,7 +4026,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="433070" h="393700" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -4024,7 +4083,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
@@ -4037,9 +4096,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4094,9 +4159,15 @@
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="863599" cy="908049"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4111,7 +4182,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="744220" h="744220" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="124967" y="3048"/>
               </a:moveTo>
@@ -4246,7 +4317,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="744220" h="744220" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="737615" y="88391"/>
               </a:moveTo>
@@ -4288,7 +4359,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="744220" h="744220" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="10668" y="88391"/>
               </a:moveTo>
@@ -4303,7 +4374,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="744220" h="744220" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="643127" y="3048"/>
               </a:moveTo>
@@ -4357,7 +4428,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="744220" h="744220" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="618744" y="0"/>
               </a:moveTo>
@@ -4425,294 +4496,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9292</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>966437</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>348974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38499A2E-F3D4-0F77-EDB4-75939AF7FCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4915829" y="3243783"/>
+          <a:ext cx="957145" cy="947715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199794</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1158793</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37ADF45-D198-AC13-4B82-22593A396429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4451196" y="4553952"/>
+          <a:ext cx="1614134" cy="1222263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
@@ -4917,405 +4793,423 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="0" sqref="B9:E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.140625"/>
-    <col customWidth="1" min="2" max="2" width="7.140625"/>
-    <col customWidth="1" min="3" max="3" width="12"/>
-    <col customWidth="1" min="4" max="4" width="5.85546875"/>
-    <col customWidth="1" min="5" max="5" width="10.7109375"/>
-    <col customWidth="1" min="6" max="7" width="5.85546875"/>
-    <col customWidth="1" min="8" max="8" width="6.85546875"/>
-    <col customWidth="1" min="9" max="9" width="4.140625"/>
-    <col customWidth="1" min="10" max="10" width="7.28515625"/>
-    <col customWidth="1" min="11" max="11" width="29"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75"/>
-    <row r="2" ht="13.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="13.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="6.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+    <row r="5" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
-    <row r="6" s="19" customFormat="1" ht="16.550000000000001" customHeight="1">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
     </row>
-    <row r="7" ht="6.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+    <row r="7" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="28" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
     </row>
-    <row r="12" s="19" customFormat="1" ht="16.550000000000001" customHeight="1">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
-    <row r="13" s="19" customFormat="1" ht="14.6" customHeight="1">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54" t="s">
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" ht="14.6" customHeight="1">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="60" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
     </row>
-    <row r="15" ht="14.6" customHeight="1">
-      <c r="A15" s="63" t="s">
+    <row r="15" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
     </row>
-    <row r="16" ht="14.6" customHeight="1">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
     </row>
-    <row r="17" ht="14.6" customHeight="1">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="75"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
     </row>
-    <row r="18" ht="14.6" customHeight="1">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="78" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
     </row>
-    <row r="19" ht="47.950000000000003" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="N19" s="86"/>
+    <row r="19" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="N19" s="19"/>
     </row>
-    <row r="20" s="19" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="87" t="s">
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
     </row>
-    <row r="21" s="19" customFormat="1" ht="16.550000000000001" customHeight="1">
-      <c r="A21" s="90" t="s">
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
     </row>
-    <row r="22" ht="45" customHeight="1">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="24"/>
     </row>
-    <row r="23" ht="55.5" customHeight="1">
-      <c r="A23" s="93" t="s">
+    <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="F23" s="96" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="F23" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
     </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:J4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -5323,33 +5217,14 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="83" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/front/src/assets/FORMATO_RETIRO_AHORRO.xlsx
+++ b/front/src/assets/FORMATO_RETIRO_AHORRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\femseapto\front\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992AE933-FD90-419D-815F-16D716E05C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC593AD-2F36-45F2-AB01-926466F1C65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4501,13 +4501,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>9292</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9929</xdr:rowOff>
+      <xdr:rowOff>13002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>966437</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>348974</xdr:rowOff>
+      <xdr:rowOff>352047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4530,8 +4530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4915829" y="3243783"/>
-          <a:ext cx="957145" cy="947715"/>
+          <a:off x="4916203" y="3251502"/>
+          <a:ext cx="957145" cy="947416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4802,7 +4802,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
